--- a/fuentes/contenidos/grado09/guion13/SolicitudGrafica_MA_09_13_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado09/guion13/SolicitudGrafica_MA_09_13_CO_REC30.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a93f9266bce4775/Documentos/Especificaciones de imagenes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,8 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -630,7 +636,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1569,6 +1575,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1667,7 +1674,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1774,7 +1780,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1817,7 +1823,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1825,6 +1831,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1858,7 +1878,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1866,6 +1886,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1899,7 +1933,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1907,6 +1941,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1940,7 +1988,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1948,6 +1996,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1981,7 +2043,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1989,6 +2051,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2022,7 +2098,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2030,6 +2106,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2063,7 +2153,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2071,6 +2161,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2406,7 +2510,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
@@ -2454,14 +2558,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2485,12 +2589,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="87">
         <v>9</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2514,10 +2618,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2546,8 +2650,8 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2631,12 +2735,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2711,7 +2815,7 @@
         <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
-        <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f ca="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_09_13_CO_REC30_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
@@ -2719,14 +2823,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H10" s="13" t="str">
-        <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f ca="1">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_09_13_CO_REC30_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="77" t="s">
         <v>190</v>
       </c>
       <c r="K10" s="64" t="s">
@@ -2739,7 +2843,7 @@
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
-        <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
+        <f t="shared" ref="A11:A18" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
       <c r="B11" s="62">
@@ -2756,7 +2860,7 @@
         <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F11:F74" ca="1" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_09_13_CO_REC30_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
@@ -2764,14 +2868,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H11" s="13" t="str">
-        <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H11:H74" ca="1" si="3">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_09_13_CO_REC30_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="77" t="s">
         <v>192</v>
       </c>
       <c r="K11" s="65" t="s">
@@ -2784,7 +2888,7 @@
     </row>
     <row r="12" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="62">
@@ -2801,7 +2905,7 @@
         <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
@@ -2809,14 +2913,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H12" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="77" t="s">
         <v>193</v>
       </c>
       <c r="K12" s="64" t="s">
@@ -2829,7 +2933,7 @@
     </row>
     <row r="13" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG04</v>
       </c>
       <c r="B13" s="62">
@@ -2846,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
@@ -2854,14 +2958,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H13" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="77" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="64" t="s">
@@ -2874,7 +2978,7 @@
     </row>
     <row r="14" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="62">
@@ -2891,7 +2995,7 @@
         <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG05n.png</v>
       </c>
       <c r="G14" s="13" t="str">
@@ -2899,14 +3003,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H14" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG05a.png</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="77" t="s">
         <v>195</v>
       </c>
       <c r="K14" s="64" t="s">
@@ -2919,7 +3023,7 @@
     </row>
     <row r="15" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG06</v>
       </c>
       <c r="B15" s="62">
@@ -2936,7 +3040,7 @@
         <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG06n.png</v>
       </c>
       <c r="G15" s="13" t="str">
@@ -2944,14 +3048,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H15" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG06a.png</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="77" t="s">
         <v>196</v>
       </c>
       <c r="K15" s="66" t="s">
@@ -2964,7 +3068,7 @@
     </row>
     <row r="16" spans="1:16" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62">
@@ -2981,7 +3085,7 @@
         <v>155</v>
       </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG07n.png</v>
       </c>
       <c r="G16" s="13" t="str">
@@ -2989,14 +3093,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H16" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG07a.png</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J16" s="108" t="s">
+      <c r="J16" s="77" t="s">
         <v>197</v>
       </c>
       <c r="K16" s="67" t="s">
@@ -3009,7 +3113,7 @@
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62">
@@ -3026,7 +3130,7 @@
         <v>155</v>
       </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG08n.png</v>
       </c>
       <c r="G17" s="13" t="str">
@@ -3034,14 +3138,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H17" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG08a.png</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="77" t="s">
         <v>198</v>
       </c>
       <c r="K17" s="66" t="s">
@@ -3054,7 +3158,7 @@
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62">
@@ -3071,7 +3175,7 @@
         <v>155</v>
       </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG09n.png</v>
       </c>
       <c r="G18" s="13" t="str">
@@ -3079,14 +3183,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG09a.png</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="77" t="s">
         <v>199</v>
       </c>
       <c r="K18" s="66" t="s">
@@ -3099,7 +3203,7 @@
     </row>
     <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
-        <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
+        <f t="shared" ref="A19:A50" si="4">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
       <c r="B19" s="62">
@@ -3116,7 +3220,7 @@
         <v>155</v>
       </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>MA_09_13_CO_REC30_IMG10n.png</v>
       </c>
       <c r="G19" s="13" t="str">
@@ -3124,14 +3228,14 @@
         <v>286 x 286 px</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>MA_09_13_CO_REC30_IMG10a.png</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J19" s="108" t="s">
+      <c r="J19" s="77" t="s">
         <v>200</v>
       </c>
       <c r="K19" s="67" t="s">
@@ -3144,7 +3248,7 @@
     </row>
     <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B20" s="62"/>
@@ -3155,7 +3259,7 @@
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="13" t="str">
@@ -3163,7 +3267,7 @@
         <v/>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I20" s="13" t="str">
@@ -3179,7 +3283,7 @@
     </row>
     <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B21" s="62"/>
@@ -3190,7 +3294,7 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="13" t="str">
@@ -3198,7 +3302,7 @@
         <v/>
       </c>
       <c r="H21" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I21" s="13" t="str">
@@ -3214,7 +3318,7 @@
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B22" s="62"/>
@@ -3225,7 +3329,7 @@
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="13" t="str">
@@ -3233,7 +3337,7 @@
         <v/>
       </c>
       <c r="H22" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I22" s="13" t="str">
@@ -3249,7 +3353,7 @@
     </row>
     <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B23" s="62"/>
@@ -3260,7 +3364,7 @@
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="13" t="str">
@@ -3268,7 +3372,7 @@
         <v/>
       </c>
       <c r="H23" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I23" s="13" t="str">
@@ -3284,7 +3388,7 @@
     </row>
     <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B24" s="62"/>
@@ -3295,7 +3399,7 @@
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G24" s="13" t="str">
@@ -3303,7 +3407,7 @@
         <v/>
       </c>
       <c r="H24" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I24" s="13" t="str">
@@ -3319,7 +3423,7 @@
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B25" s="62"/>
@@ -3330,7 +3434,7 @@
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G25" s="13" t="str">
@@ -3338,7 +3442,7 @@
         <v/>
       </c>
       <c r="H25" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I25" s="13" t="str">
@@ -3350,7 +3454,7 @@
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B26" s="62"/>
@@ -3361,7 +3465,7 @@
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="13" t="str">
@@ -3369,7 +3473,7 @@
         <v/>
       </c>
       <c r="H26" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I26" s="13" t="str">
@@ -3381,7 +3485,7 @@
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B27" s="62"/>
@@ -3392,7 +3496,7 @@
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G27" s="13" t="str">
@@ -3400,7 +3504,7 @@
         <v/>
       </c>
       <c r="H27" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I27" s="13" t="str">
@@ -3413,7 +3517,7 @@
     </row>
     <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B28" s="62"/>
@@ -3424,7 +3528,7 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G28" s="13" t="str">
@@ -3432,7 +3536,7 @@
         <v/>
       </c>
       <c r="H28" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I28" s="13" t="str">
@@ -3444,7 +3548,7 @@
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B29" s="62"/>
@@ -3455,7 +3559,7 @@
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G29" s="13" t="str">
@@ -3463,7 +3567,7 @@
         <v/>
       </c>
       <c r="H29" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I29" s="13" t="str">
@@ -3475,7 +3579,7 @@
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B30" s="62"/>
@@ -3486,7 +3590,7 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="13" t="str">
@@ -3494,7 +3598,7 @@
         <v/>
       </c>
       <c r="H30" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I30" s="13" t="str">
@@ -3506,7 +3610,7 @@
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B31" s="62"/>
@@ -3517,7 +3621,7 @@
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="13" t="str">
@@ -3525,7 +3629,7 @@
         <v/>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I31" s="13" t="str">
@@ -3537,7 +3641,7 @@
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B32" s="62"/>
@@ -3548,7 +3652,7 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G32" s="13" t="str">
@@ -3556,7 +3660,7 @@
         <v/>
       </c>
       <c r="H32" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I32" s="13" t="str">
@@ -3568,7 +3672,7 @@
     </row>
     <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B33" s="62"/>
@@ -3579,7 +3683,7 @@
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G33" s="13" t="str">
@@ -3587,7 +3691,7 @@
         <v/>
       </c>
       <c r="H33" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I33" s="13" t="str">
@@ -3599,7 +3703,7 @@
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B34" s="62"/>
@@ -3610,7 +3714,7 @@
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
       <c r="F34" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="13" t="str">
@@ -3618,7 +3722,7 @@
         <v/>
       </c>
       <c r="H34" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I34" s="13" t="str">
@@ -3631,7 +3735,7 @@
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B35" s="62"/>
@@ -3642,7 +3746,7 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G35" s="13" t="str">
@@ -3650,7 +3754,7 @@
         <v/>
       </c>
       <c r="H35" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I35" s="13" t="str">
@@ -3663,7 +3767,7 @@
     </row>
     <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B36" s="62"/>
@@ -3674,7 +3778,7 @@
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="13" t="str">
@@ -3682,7 +3786,7 @@
         <v/>
       </c>
       <c r="H36" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I36" s="13" t="str">
@@ -3695,7 +3799,7 @@
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B37" s="62"/>
@@ -3706,7 +3810,7 @@
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" s="13" t="str">
@@ -3714,7 +3818,7 @@
         <v/>
       </c>
       <c r="H37" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I37" s="13" t="str">
@@ -3726,7 +3830,7 @@
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B38" s="62"/>
@@ -3737,7 +3841,7 @@
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" s="13" t="str">
@@ -3745,7 +3849,7 @@
         <v/>
       </c>
       <c r="H38" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I38" s="13" t="str">
@@ -3757,7 +3861,7 @@
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B39" s="62"/>
@@ -3768,7 +3872,7 @@
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" s="13" t="str">
@@ -3776,7 +3880,7 @@
         <v/>
       </c>
       <c r="H39" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I39" s="13" t="str">
@@ -3788,7 +3892,7 @@
     </row>
     <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B40" s="62"/>
@@ -3799,7 +3903,7 @@
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G40" s="13" t="str">
@@ -3807,7 +3911,7 @@
         <v/>
       </c>
       <c r="H40" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I40" s="13" t="str">
@@ -3819,7 +3923,7 @@
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B41" s="62"/>
@@ -3830,7 +3934,7 @@
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" s="13" t="str">
@@ -3838,7 +3942,7 @@
         <v/>
       </c>
       <c r="H41" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I41" s="13" t="str">
@@ -3850,18 +3954,18 @@
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B42" s="62"/>
       <c r="C42" s="20" t="str">
-        <f t="shared" ref="C42:C73" si="7">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C42:C73" si="5">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" s="13" t="str">
@@ -3869,7 +3973,7 @@
         <v/>
       </c>
       <c r="H42" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I42" s="13" t="str">
@@ -3881,18 +3985,18 @@
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B43" s="62"/>
       <c r="C43" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G43" s="13" t="str">
@@ -3900,7 +4004,7 @@
         <v/>
       </c>
       <c r="H43" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I43" s="13" t="str">
@@ -3912,18 +4016,18 @@
     </row>
     <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B44" s="62"/>
       <c r="C44" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" s="13" t="str">
@@ -3931,7 +4035,7 @@
         <v/>
       </c>
       <c r="H44" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I44" s="13" t="str">
@@ -3943,18 +4047,18 @@
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B45" s="62"/>
       <c r="C45" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G45" s="13" t="str">
@@ -3962,7 +4066,7 @@
         <v/>
       </c>
       <c r="H45" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I45" s="13" t="str">
@@ -3974,18 +4078,18 @@
     </row>
     <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" s="13" t="str">
@@ -3993,7 +4097,7 @@
         <v/>
       </c>
       <c r="H46" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I46" s="13" t="str">
@@ -4005,18 +4109,18 @@
     </row>
     <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G47" s="13" t="str">
@@ -4024,7 +4128,7 @@
         <v/>
       </c>
       <c r="H47" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I47" s="13" t="str">
@@ -4036,18 +4140,18 @@
     </row>
     <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
       <c r="F48" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G48" s="13" t="str">
@@ -4055,7 +4159,7 @@
         <v/>
       </c>
       <c r="H48" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I48" s="13" t="str">
@@ -4067,18 +4171,18 @@
     </row>
     <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B49" s="62"/>
       <c r="C49" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" s="13" t="str">
@@ -4086,7 +4190,7 @@
         <v/>
       </c>
       <c r="H49" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I49" s="13" t="str">
@@ -4098,18 +4202,18 @@
     </row>
     <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B50" s="62"/>
       <c r="C50" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" s="13" t="str">
@@ -4117,7 +4221,7 @@
         <v/>
       </c>
       <c r="H50" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I50" s="13" t="str">
@@ -4129,18 +4233,18 @@
     </row>
     <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
-        <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
+        <f t="shared" ref="A51:A82" si="6">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B51" s="62"/>
       <c r="C51" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" s="13" t="str">
@@ -4148,7 +4252,7 @@
         <v/>
       </c>
       <c r="H51" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I51" s="13" t="str">
@@ -4160,18 +4264,18 @@
     </row>
     <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B52" s="62"/>
       <c r="C52" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
       <c r="F52" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" s="13" t="str">
@@ -4179,7 +4283,7 @@
         <v/>
       </c>
       <c r="H52" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I52" s="13" t="str">
@@ -4191,18 +4295,18 @@
     </row>
     <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B53" s="62"/>
       <c r="C53" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" s="13" t="str">
@@ -4210,7 +4314,7 @@
         <v/>
       </c>
       <c r="H53" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I53" s="13" t="str">
@@ -4222,18 +4326,18 @@
     </row>
     <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" s="13" t="str">
@@ -4241,7 +4345,7 @@
         <v/>
       </c>
       <c r="H54" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I54" s="13" t="str">
@@ -4253,18 +4357,18 @@
     </row>
     <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B55" s="62"/>
       <c r="C55" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G55" s="13" t="str">
@@ -4272,7 +4376,7 @@
         <v/>
       </c>
       <c r="H55" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I55" s="13" t="str">
@@ -4284,18 +4388,18 @@
     </row>
     <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B56" s="62"/>
       <c r="C56" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
       <c r="F56" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G56" s="13" t="str">
@@ -4303,7 +4407,7 @@
         <v/>
       </c>
       <c r="H56" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I56" s="13" t="str">
@@ -4315,18 +4419,18 @@
     </row>
     <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B57" s="62"/>
       <c r="C57" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
       <c r="F57" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G57" s="13" t="str">
@@ -4334,7 +4438,7 @@
         <v/>
       </c>
       <c r="H57" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I57" s="13" t="str">
@@ -4346,18 +4450,18 @@
     </row>
     <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B58" s="62"/>
       <c r="C58" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G58" s="13" t="str">
@@ -4365,7 +4469,7 @@
         <v/>
       </c>
       <c r="H58" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I58" s="13" t="str">
@@ -4377,18 +4481,18 @@
     </row>
     <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B59" s="62"/>
       <c r="C59" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G59" s="13" t="str">
@@ -4396,7 +4500,7 @@
         <v/>
       </c>
       <c r="H59" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I59" s="13" t="str">
@@ -4408,18 +4512,18 @@
     </row>
     <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B60" s="62"/>
       <c r="C60" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G60" s="13" t="str">
@@ -4427,7 +4531,7 @@
         <v/>
       </c>
       <c r="H60" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I60" s="13" t="str">
@@ -4439,18 +4543,18 @@
     </row>
     <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B61" s="62"/>
       <c r="C61" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G61" s="13" t="str">
@@ -4458,7 +4562,7 @@
         <v/>
       </c>
       <c r="H61" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I61" s="13" t="str">
@@ -4470,18 +4574,18 @@
     </row>
     <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B62" s="62"/>
       <c r="C62" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
       <c r="F62" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G62" s="13" t="str">
@@ -4489,7 +4593,7 @@
         <v/>
       </c>
       <c r="H62" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I62" s="13" t="str">
@@ -4501,18 +4605,18 @@
     </row>
     <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B63" s="62"/>
       <c r="C63" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G63" s="13" t="str">
@@ -4520,7 +4624,7 @@
         <v/>
       </c>
       <c r="H63" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I63" s="13" t="str">
@@ -4532,18 +4636,18 @@
     </row>
     <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B64" s="62"/>
       <c r="C64" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G64" s="13" t="str">
@@ -4551,7 +4655,7 @@
         <v/>
       </c>
       <c r="H64" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I64" s="13" t="str">
@@ -4563,18 +4667,18 @@
     </row>
     <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B65" s="62"/>
       <c r="C65" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G65" s="13" t="str">
@@ -4582,7 +4686,7 @@
         <v/>
       </c>
       <c r="H65" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I65" s="13" t="str">
@@ -4594,18 +4698,18 @@
     </row>
     <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B66" s="62"/>
       <c r="C66" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G66" s="13" t="str">
@@ -4613,7 +4717,7 @@
         <v/>
       </c>
       <c r="H66" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I66" s="13" t="str">
@@ -4625,18 +4729,18 @@
     </row>
     <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B67" s="62"/>
       <c r="C67" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
       <c r="F67" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G67" s="13" t="str">
@@ -4644,7 +4748,7 @@
         <v/>
       </c>
       <c r="H67" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I67" s="13" t="str">
@@ -4656,18 +4760,18 @@
     </row>
     <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B68" s="62"/>
       <c r="C68" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G68" s="13" t="str">
@@ -4675,7 +4779,7 @@
         <v/>
       </c>
       <c r="H68" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I68" s="13" t="str">
@@ -4687,18 +4791,18 @@
     </row>
     <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B69" s="62"/>
       <c r="C69" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
       <c r="F69" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G69" s="13" t="str">
@@ -4706,7 +4810,7 @@
         <v/>
       </c>
       <c r="H69" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I69" s="13" t="str">
@@ -4718,18 +4822,18 @@
     </row>
     <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B70" s="62"/>
       <c r="C70" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G70" s="13" t="str">
@@ -4737,7 +4841,7 @@
         <v/>
       </c>
       <c r="H70" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I70" s="13" t="str">
@@ -4749,18 +4853,18 @@
     </row>
     <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B71" s="62"/>
       <c r="C71" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D71" s="63"/>
       <c r="E71" s="63"/>
       <c r="F71" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G71" s="13" t="str">
@@ -4768,7 +4872,7 @@
         <v/>
       </c>
       <c r="H71" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I71" s="13" t="str">
@@ -4780,18 +4884,18 @@
     </row>
     <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B72" s="62"/>
       <c r="C72" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G72" s="13" t="str">
@@ -4799,7 +4903,7 @@
         <v/>
       </c>
       <c r="H72" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I72" s="13" t="str">
@@ -4811,18 +4915,18 @@
     </row>
     <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B73" s="62"/>
       <c r="C73" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D73" s="63"/>
       <c r="E73" s="63"/>
       <c r="F73" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G73" s="13" t="str">
@@ -4830,7 +4934,7 @@
         <v/>
       </c>
       <c r="H73" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I73" s="13" t="str">
@@ -4842,18 +4946,18 @@
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B74" s="62"/>
       <c r="C74" s="20" t="str">
-        <f t="shared" ref="C74:C105" si="9">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C74:C105" si="7">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G74" s="13" t="str">
@@ -4861,7 +4965,7 @@
         <v/>
       </c>
       <c r="H74" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I74" s="13" t="str">
@@ -4873,18 +4977,18 @@
     </row>
     <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B75" s="62"/>
       <c r="C75" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
       <c r="F75" s="13" t="str">
-        <f t="shared" ref="F75:F108" si="10">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="8">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="13" t="str">
@@ -4892,7 +4996,7 @@
         <v/>
       </c>
       <c r="H75" s="13" t="str">
-        <f t="shared" ref="H75:H108" ca="1" si="11">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" ca="1" si="9">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="13" t="str">
@@ -4904,18 +5008,18 @@
     </row>
     <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B76" s="62"/>
       <c r="C76" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G76" s="13" t="str">
@@ -4923,7 +5027,7 @@
         <v/>
       </c>
       <c r="H76" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I76" s="13" t="str">
@@ -4935,18 +5039,18 @@
     </row>
     <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B77" s="62"/>
       <c r="C77" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D77" s="63"/>
       <c r="E77" s="63"/>
       <c r="F77" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G77" s="13" t="str">
@@ -4954,7 +5058,7 @@
         <v/>
       </c>
       <c r="H77" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I77" s="13" t="str">
@@ -4966,18 +5070,18 @@
     </row>
     <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B78" s="62"/>
       <c r="C78" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G78" s="13" t="str">
@@ -4985,7 +5089,7 @@
         <v/>
       </c>
       <c r="H78" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I78" s="13" t="str">
@@ -4997,18 +5101,18 @@
     </row>
     <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B79" s="62"/>
       <c r="C79" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G79" s="13" t="str">
@@ -5016,7 +5120,7 @@
         <v/>
       </c>
       <c r="H79" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I79" s="13" t="str">
@@ -5028,18 +5132,18 @@
     </row>
     <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B80" s="62"/>
       <c r="C80" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
       <c r="F80" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G80" s="13" t="str">
@@ -5047,7 +5151,7 @@
         <v/>
       </c>
       <c r="H80" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I80" s="13" t="str">
@@ -5059,18 +5163,18 @@
     </row>
     <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B81" s="62"/>
       <c r="C81" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G81" s="13" t="str">
@@ -5078,7 +5182,7 @@
         <v/>
       </c>
       <c r="H81" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I81" s="13" t="str">
@@ -5090,18 +5194,18 @@
     </row>
     <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B82" s="62"/>
       <c r="C82" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G82" s="13" t="str">
@@ -5109,7 +5213,7 @@
         <v/>
       </c>
       <c r="H82" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I82" s="13" t="str">
@@ -5121,18 +5225,18 @@
     </row>
     <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
-        <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
+        <f t="shared" ref="A83:A108" si="10">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B83" s="62"/>
       <c r="C83" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G83" s="13" t="str">
@@ -5140,7 +5244,7 @@
         <v/>
       </c>
       <c r="H83" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I83" s="13" t="str">
@@ -5152,18 +5256,18 @@
     </row>
     <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B84" s="62"/>
       <c r="C84" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
       <c r="F84" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G84" s="13" t="str">
@@ -5171,7 +5275,7 @@
         <v/>
       </c>
       <c r="H84" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I84" s="13" t="str">
@@ -5183,18 +5287,18 @@
     </row>
     <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B85" s="62"/>
       <c r="C85" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G85" s="13" t="str">
@@ -5202,7 +5306,7 @@
         <v/>
       </c>
       <c r="H85" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I85" s="13" t="str">
@@ -5214,18 +5318,18 @@
     </row>
     <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B86" s="62"/>
       <c r="C86" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G86" s="13" t="str">
@@ -5233,7 +5337,7 @@
         <v/>
       </c>
       <c r="H86" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I86" s="13" t="str">
@@ -5245,18 +5349,18 @@
     </row>
     <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B87" s="62"/>
       <c r="C87" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="F87" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G87" s="13" t="str">
@@ -5264,7 +5368,7 @@
         <v/>
       </c>
       <c r="H87" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I87" s="13" t="str">
@@ -5276,18 +5380,18 @@
     </row>
     <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B88" s="62"/>
       <c r="C88" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G88" s="13" t="str">
@@ -5295,7 +5399,7 @@
         <v/>
       </c>
       <c r="H88" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I88" s="13" t="str">
@@ -5307,18 +5411,18 @@
     </row>
     <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B89" s="62"/>
       <c r="C89" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G89" s="13" t="str">
@@ -5326,7 +5430,7 @@
         <v/>
       </c>
       <c r="H89" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I89" s="13" t="str">
@@ -5338,18 +5442,18 @@
     </row>
     <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B90" s="62"/>
       <c r="C90" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G90" s="13" t="str">
@@ -5357,7 +5461,7 @@
         <v/>
       </c>
       <c r="H90" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I90" s="13" t="str">
@@ -5369,18 +5473,18 @@
     </row>
     <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B91" s="62"/>
       <c r="C91" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
       <c r="F91" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G91" s="13" t="str">
@@ -5388,7 +5492,7 @@
         <v/>
       </c>
       <c r="H91" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I91" s="13" t="str">
@@ -5400,18 +5504,18 @@
     </row>
     <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B92" s="62"/>
       <c r="C92" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G92" s="13" t="str">
@@ -5419,7 +5523,7 @@
         <v/>
       </c>
       <c r="H92" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I92" s="13" t="str">
@@ -5431,18 +5535,18 @@
     </row>
     <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B93" s="62"/>
       <c r="C93" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G93" s="13" t="str">
@@ -5450,7 +5554,7 @@
         <v/>
       </c>
       <c r="H93" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I93" s="13" t="str">
@@ -5462,18 +5566,18 @@
     </row>
     <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B94" s="62"/>
       <c r="C94" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G94" s="13" t="str">
@@ -5481,7 +5585,7 @@
         <v/>
       </c>
       <c r="H94" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I94" s="13" t="str">
@@ -5493,18 +5597,18 @@
     </row>
     <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B95" s="62"/>
       <c r="C95" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D95" s="63"/>
       <c r="E95" s="63"/>
       <c r="F95" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G95" s="13" t="str">
@@ -5512,7 +5616,7 @@
         <v/>
       </c>
       <c r="H95" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I95" s="13" t="str">
@@ -5524,18 +5628,18 @@
     </row>
     <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B96" s="62"/>
       <c r="C96" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D96" s="63"/>
       <c r="E96" s="63"/>
       <c r="F96" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G96" s="13" t="str">
@@ -5543,7 +5647,7 @@
         <v/>
       </c>
       <c r="H96" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I96" s="13" t="str">
@@ -5555,18 +5659,18 @@
     </row>
     <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B97" s="62"/>
       <c r="C97" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D97" s="63"/>
       <c r="E97" s="63"/>
       <c r="F97" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G97" s="13" t="str">
@@ -5574,7 +5678,7 @@
         <v/>
       </c>
       <c r="H97" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I97" s="13" t="str">
@@ -5586,18 +5690,18 @@
     </row>
     <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B98" s="62"/>
       <c r="C98" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D98" s="63"/>
       <c r="E98" s="63"/>
       <c r="F98" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G98" s="13" t="str">
@@ -5605,7 +5709,7 @@
         <v/>
       </c>
       <c r="H98" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I98" s="13" t="str">
@@ -5617,18 +5721,18 @@
     </row>
     <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B99" s="62"/>
       <c r="C99" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D99" s="63"/>
       <c r="E99" s="63"/>
       <c r="F99" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G99" s="13" t="str">
@@ -5636,7 +5740,7 @@
         <v/>
       </c>
       <c r="H99" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I99" s="13" t="str">
@@ -5648,18 +5752,18 @@
     </row>
     <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B100" s="62"/>
       <c r="C100" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D100" s="63"/>
       <c r="E100" s="63"/>
       <c r="F100" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G100" s="13" t="str">
@@ -5667,7 +5771,7 @@
         <v/>
       </c>
       <c r="H100" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I100" s="13" t="str">
@@ -5679,18 +5783,18 @@
     </row>
     <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B101" s="62"/>
       <c r="C101" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D101" s="63"/>
       <c r="E101" s="63"/>
       <c r="F101" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G101" s="13" t="str">
@@ -5698,7 +5802,7 @@
         <v/>
       </c>
       <c r="H101" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I101" s="13" t="str">
@@ -5710,18 +5814,18 @@
     </row>
     <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B102" s="62"/>
       <c r="C102" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D102" s="63"/>
       <c r="E102" s="63"/>
       <c r="F102" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G102" s="13" t="str">
@@ -5729,7 +5833,7 @@
         <v/>
       </c>
       <c r="H102" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I102" s="13" t="str">
@@ -5741,18 +5845,18 @@
     </row>
     <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B103" s="62"/>
       <c r="C103" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D103" s="63"/>
       <c r="E103" s="63"/>
       <c r="F103" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G103" s="13" t="str">
@@ -5760,7 +5864,7 @@
         <v/>
       </c>
       <c r="H103" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I103" s="13" t="str">
@@ -5772,18 +5876,18 @@
     </row>
     <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B104" s="62"/>
       <c r="C104" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D104" s="63"/>
       <c r="E104" s="63"/>
       <c r="F104" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G104" s="13" t="str">
@@ -5791,7 +5895,7 @@
         <v/>
       </c>
       <c r="H104" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I104" s="13" t="str">
@@ -5803,18 +5907,18 @@
     </row>
     <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B105" s="62"/>
       <c r="C105" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D105" s="63"/>
       <c r="E105" s="63"/>
       <c r="F105" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G105" s="13" t="str">
@@ -5822,7 +5926,7 @@
         <v/>
       </c>
       <c r="H105" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I105" s="13" t="str">
@@ -5834,7 +5938,7 @@
     </row>
     <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B106" s="62"/>
@@ -5845,7 +5949,7 @@
       <c r="D106" s="63"/>
       <c r="E106" s="63"/>
       <c r="F106" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G106" s="13" t="str">
@@ -5853,7 +5957,7 @@
         <v/>
       </c>
       <c r="H106" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I106" s="13" t="str">
@@ -5865,7 +5969,7 @@
     </row>
     <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B107" s="62"/>
@@ -5876,7 +5980,7 @@
       <c r="D107" s="63"/>
       <c r="E107" s="63"/>
       <c r="F107" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G107" s="13" t="str">
@@ -5884,7 +5988,7 @@
         <v/>
       </c>
       <c r="H107" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I107" s="13" t="str">
@@ -5896,7 +6000,7 @@
     </row>
     <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B108" s="62"/>
@@ -5907,7 +6011,7 @@
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
       <c r="F108" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G108" s="13" t="str">
@@ -5915,7 +6019,7 @@
         <v/>
       </c>
       <c r="H108" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I108" s="13" t="str">
@@ -5991,25 +6095,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6017,11 +6121,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6072,11 +6176,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6121,12 +6225,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6220,14 +6324,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6260,12 +6364,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6305,12 +6409,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6326,12 +6430,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6722,40 +6826,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
